--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cntf-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cntf</t>
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H2">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J2">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N2">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O2">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P2">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q2">
-        <v>16.39861030706508</v>
+        <v>45.85830968489478</v>
       </c>
       <c r="R2">
-        <v>16.39861030706508</v>
+        <v>412.724787164053</v>
       </c>
       <c r="S2">
-        <v>0.09272747553872859</v>
+        <v>0.07624074852599254</v>
       </c>
       <c r="T2">
-        <v>0.09272747553872859</v>
+        <v>0.0762407485259925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H3">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J3">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N3">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P3">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q3">
-        <v>76.1379057358032</v>
+        <v>111.0152648937092</v>
       </c>
       <c r="R3">
-        <v>76.1379057358032</v>
+        <v>999.1373840433829</v>
       </c>
       <c r="S3">
-        <v>0.4305289082115081</v>
+        <v>0.1845660459677964</v>
       </c>
       <c r="T3">
-        <v>0.4305289082115081</v>
+        <v>0.1845660459677963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H4">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J4">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N4">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O4">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P4">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q4">
-        <v>11.18330273186494</v>
+        <v>17.77110956914944</v>
       </c>
       <c r="R4">
-        <v>11.18330273186494</v>
+        <v>159.939986122345</v>
       </c>
       <c r="S4">
-        <v>0.06323703113210928</v>
+        <v>0.02954497679917028</v>
       </c>
       <c r="T4">
-        <v>0.06323703113210928</v>
+        <v>0.02954497679917028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.857377159055374</v>
+        <v>1.249087666666667</v>
       </c>
       <c r="H5">
-        <v>0.857377159055374</v>
+        <v>3.747263</v>
       </c>
       <c r="I5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="J5">
-        <v>0.7566612048076802</v>
+        <v>0.3661911890049113</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>35.0997528102109</v>
+        <v>36.52018433333333</v>
       </c>
       <c r="N5">
-        <v>35.0997528102109</v>
+        <v>109.560553</v>
       </c>
       <c r="O5">
-        <v>0.224892975672759</v>
+        <v>0.20710333833547</v>
       </c>
       <c r="P5">
-        <v>0.224892975672759</v>
+        <v>0.2071033383354699</v>
       </c>
       <c r="Q5">
-        <v>30.09372634796451</v>
+        <v>45.61691183515988</v>
       </c>
       <c r="R5">
-        <v>30.09372634796451</v>
+        <v>410.552206516439</v>
       </c>
       <c r="S5">
-        <v>0.1701677899253341</v>
+        <v>0.07583941771195217</v>
       </c>
       <c r="T5">
-        <v>0.1701677899253341</v>
+        <v>0.07583941771195216</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H6">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J6">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.1264837578977</v>
+        <v>36.71344366666667</v>
       </c>
       <c r="N6">
-        <v>19.1264837578977</v>
+        <v>110.140331</v>
       </c>
       <c r="O6">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130139</v>
       </c>
       <c r="P6">
-        <v>0.1225482090922014</v>
+        <v>0.2081992981130138</v>
       </c>
       <c r="Q6">
-        <v>5.273718342628409</v>
+        <v>21.34298110336545</v>
       </c>
       <c r="R6">
-        <v>5.273718342628409</v>
+        <v>192.086829930289</v>
       </c>
       <c r="S6">
-        <v>0.02982073355347276</v>
+        <v>0.03548331515656974</v>
       </c>
       <c r="T6">
-        <v>0.02982073355347276</v>
+        <v>0.03548331515656973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H7">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J7">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.8032821164598</v>
+        <v>88.87708033333332</v>
       </c>
       <c r="N7">
-        <v>88.8032821164598</v>
+        <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5689850430760953</v>
+        <v>0.5040155293450301</v>
       </c>
       <c r="P7">
-        <v>0.5689850430760953</v>
+        <v>0.50401552934503</v>
       </c>
       <c r="Q7">
-        <v>24.48560350722068</v>
+        <v>51.66777225528655</v>
       </c>
       <c r="R7">
-        <v>24.48560350722068</v>
+        <v>465.0099502975791</v>
       </c>
       <c r="S7">
-        <v>0.1384561348645872</v>
+        <v>0.08589914583596356</v>
       </c>
       <c r="T7">
-        <v>0.1384561348645872</v>
+        <v>0.08589914583596353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.275728587093317</v>
+        <v>0.5813396666666667</v>
       </c>
       <c r="H8">
-        <v>0.275728587093317</v>
+        <v>1.744019</v>
       </c>
       <c r="I8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581233</v>
       </c>
       <c r="J8">
-        <v>0.2433387951923197</v>
+        <v>0.1704295618581232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.0436210176001</v>
+        <v>14.22727166666667</v>
       </c>
       <c r="N8">
-        <v>13.0436210176001</v>
+        <v>42.681815</v>
       </c>
       <c r="O8">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="P8">
-        <v>0.08357377215894421</v>
+        <v>0.08068183420648613</v>
       </c>
       <c r="Q8">
-        <v>3.596499193763569</v>
+        <v>8.270877368276112</v>
       </c>
       <c r="R8">
-        <v>3.596499193763569</v>
+        <v>74.43789631448502</v>
       </c>
       <c r="S8">
-        <v>0.02033674102683492</v>
+        <v>0.01375056965372117</v>
       </c>
       <c r="T8">
-        <v>0.02033674102683492</v>
+        <v>0.01375056965372117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.5813396666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.744019</v>
+      </c>
+      <c r="I9">
+        <v>0.1704295618581233</v>
+      </c>
+      <c r="J9">
+        <v>0.1704295618581232</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>36.52018433333333</v>
+      </c>
+      <c r="N9">
+        <v>109.560553</v>
+      </c>
+      <c r="O9">
+        <v>0.20710333833547</v>
+      </c>
+      <c r="P9">
+        <v>0.2071033383354699</v>
+      </c>
+      <c r="Q9">
+        <v>21.23063178694522</v>
+      </c>
+      <c r="R9">
+        <v>191.075686082507</v>
+      </c>
+      <c r="S9">
+        <v>0.03529653121186881</v>
+      </c>
+      <c r="T9">
+        <v>0.0352965312118688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.704738</v>
+      </c>
+      <c r="H10">
+        <v>2.114214</v>
+      </c>
+      <c r="I10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J10">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>36.71344366666667</v>
+      </c>
+      <c r="N10">
+        <v>110.140331</v>
+      </c>
+      <c r="O10">
+        <v>0.2081992981130139</v>
+      </c>
+      <c r="P10">
+        <v>0.2081992981130138</v>
+      </c>
+      <c r="Q10">
+        <v>25.87335886275934</v>
+      </c>
+      <c r="R10">
+        <v>232.860229764834</v>
+      </c>
+      <c r="S10">
+        <v>0.04301519746655967</v>
+      </c>
+      <c r="T10">
+        <v>0.04301519746655965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.704738</v>
+      </c>
+      <c r="H11">
+        <v>2.114214</v>
+      </c>
+      <c r="I11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J11">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>88.87708033333332</v>
+      </c>
+      <c r="N11">
+        <v>266.631241</v>
+      </c>
+      <c r="O11">
+        <v>0.5040155293450301</v>
+      </c>
+      <c r="P11">
+        <v>0.50401552934503</v>
+      </c>
+      <c r="Q11">
+        <v>62.63505583995266</v>
+      </c>
+      <c r="R11">
+        <v>563.715502559574</v>
+      </c>
+      <c r="S11">
+        <v>0.104132567772734</v>
+      </c>
+      <c r="T11">
+        <v>0.104132567772734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.704738</v>
+      </c>
+      <c r="H12">
+        <v>2.114214</v>
+      </c>
+      <c r="I12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J12">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>14.22727166666667</v>
+      </c>
+      <c r="N12">
+        <v>42.681815</v>
+      </c>
+      <c r="O12">
+        <v>0.08068183420648613</v>
+      </c>
+      <c r="P12">
+        <v>0.08068183420648613</v>
+      </c>
+      <c r="Q12">
+        <v>10.02649897982333</v>
+      </c>
+      <c r="R12">
+        <v>90.23849081841</v>
+      </c>
+      <c r="S12">
+        <v>0.01666934068371529</v>
+      </c>
+      <c r="T12">
+        <v>0.01666934068371529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.704738</v>
+      </c>
+      <c r="H13">
+        <v>2.114214</v>
+      </c>
+      <c r="I13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="J13">
+        <v>0.20660587166442</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>36.52018433333333</v>
+      </c>
+      <c r="N13">
+        <v>109.560553</v>
+      </c>
+      <c r="O13">
+        <v>0.20710333833547</v>
+      </c>
+      <c r="P13">
+        <v>0.2071033383354699</v>
+      </c>
+      <c r="Q13">
+        <v>25.73716166670467</v>
+      </c>
+      <c r="R13">
+        <v>231.634455000342</v>
+      </c>
+      <c r="S13">
+        <v>0.04278876574141107</v>
+      </c>
+      <c r="T13">
+        <v>0.04278876574141106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="H9">
-        <v>0.275728587093317</v>
-      </c>
-      <c r="I9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="J9">
-        <v>0.2433387951923197</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>35.0997528102109</v>
-      </c>
-      <c r="N9">
-        <v>35.0997528102109</v>
-      </c>
-      <c r="O9">
-        <v>0.224892975672759</v>
-      </c>
-      <c r="P9">
-        <v>0.224892975672759</v>
-      </c>
-      <c r="Q9">
-        <v>9.678005249684134</v>
-      </c>
-      <c r="R9">
-        <v>9.678005249684134</v>
-      </c>
-      <c r="S9">
-        <v>0.05472518574742485</v>
-      </c>
-      <c r="T9">
-        <v>0.05472518574742485</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.627582</v>
+      </c>
+      <c r="I14">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J14">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>36.71344366666667</v>
+      </c>
+      <c r="N14">
+        <v>110.140331</v>
+      </c>
+      <c r="O14">
+        <v>0.2081992981130139</v>
+      </c>
+      <c r="P14">
+        <v>0.2081992981130138</v>
+      </c>
+      <c r="Q14">
+        <v>32.15586124551578</v>
+      </c>
+      <c r="R14">
+        <v>289.402751209642</v>
+      </c>
+      <c r="S14">
+        <v>0.05346003696389193</v>
+      </c>
+      <c r="T14">
+        <v>0.05346003696389191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.627582</v>
+      </c>
+      <c r="I15">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J15">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>88.87708033333332</v>
+      </c>
+      <c r="N15">
+        <v>266.631241</v>
+      </c>
+      <c r="O15">
+        <v>0.5040155293450301</v>
+      </c>
+      <c r="P15">
+        <v>0.50401552934503</v>
+      </c>
+      <c r="Q15">
+        <v>77.84393883214022</v>
+      </c>
+      <c r="R15">
+        <v>700.595449489262</v>
+      </c>
+      <c r="S15">
+        <v>0.1294177697685363</v>
+      </c>
+      <c r="T15">
+        <v>0.1294177697685362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.627582</v>
+      </c>
+      <c r="I16">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J16">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.22727166666667</v>
+      </c>
+      <c r="N16">
+        <v>42.681815</v>
+      </c>
+      <c r="O16">
+        <v>0.08068183420648613</v>
+      </c>
+      <c r="P16">
+        <v>0.08068183420648613</v>
+      </c>
+      <c r="Q16">
+        <v>12.46110764681445</v>
+      </c>
+      <c r="R16">
+        <v>112.14996882133</v>
+      </c>
+      <c r="S16">
+        <v>0.02071694706987939</v>
+      </c>
+      <c r="T16">
+        <v>0.02071694706987939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.8758606666666667</v>
+      </c>
+      <c r="H17">
+        <v>2.627582</v>
+      </c>
+      <c r="I17">
+        <v>0.2567733774725455</v>
+      </c>
+      <c r="J17">
+        <v>0.2567733774725454</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>36.52018433333333</v>
+      </c>
+      <c r="N17">
+        <v>109.560553</v>
+      </c>
+      <c r="O17">
+        <v>0.20710333833547</v>
+      </c>
+      <c r="P17">
+        <v>0.2071033383354699</v>
+      </c>
+      <c r="Q17">
+        <v>31.98659299698289</v>
+      </c>
+      <c r="R17">
+        <v>287.879336972846</v>
+      </c>
+      <c r="S17">
+        <v>0.05317862367023792</v>
+      </c>
+      <c r="T17">
+        <v>0.05317862367023791</v>
       </c>
     </row>
   </sheetData>
